--- a/Base de données.xlsx
+++ b/Base de données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a1131bd7c92ce12/Documents/INSA/2A/Informatique/Projet/project-INSAMaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A158B2-08CF-4B53-9040-46BFBF0EC2E8}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2639C857-22BD-4DA2-8F2E-3655C74493D8}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Coordonnées</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Bâtiments</t>
   </si>
@@ -61,6 +58,45 @@
   </si>
   <si>
     <t>Résidence C</t>
+  </si>
+  <si>
+    <t>Coordonnées X</t>
+  </si>
+  <si>
+    <t>Coordonnées Y</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -378,74 +414,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>145</v>
+      </c>
+      <c r="C4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>262</v>
+      </c>
+      <c r="C5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>374</v>
+      </c>
+      <c r="C7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>488</v>
+      </c>
+      <c r="C8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>750</v>
+      </c>
+      <c r="C9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>738</v>
+      </c>
+      <c r="C10">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>813</v>
+      </c>
+      <c r="C11">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données.xlsx
+++ b/Base de données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a1131bd7c92ce12/Documents/INSA/2A/Informatique/Projet/project-INSAMaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2639C857-22BD-4DA2-8F2E-3655C74493D8}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2339FAC9-C95C-47B8-845F-C0940EDF611C}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,50 +563,110 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>436</v>
+      </c>
+      <c r="C14">
+        <v>393</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>581</v>
+      </c>
+      <c r="C15">
+        <v>398</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>697</v>
+      </c>
+      <c r="C16">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>711</v>
+      </c>
+      <c r="C17">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>776</v>
+      </c>
+      <c r="C18">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>787</v>
+      </c>
+      <c r="C19">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>846</v>
+      </c>
+      <c r="C20">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>849</v>
+      </c>
+      <c r="C21">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>415</v>
+      </c>
+      <c r="C22">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
+      </c>
+      <c r="B23">
+        <v>270</v>
+      </c>
+      <c r="C23">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données.xlsx
+++ b/Base de données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a1131bd7c92ce12/Documents/INSA/2A/Informatique/Projet/project-INSAMaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2339FAC9-C95C-47B8-845F-C0940EDF611C}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9831064C-C06E-42CA-B4DD-5E942A46E3C2}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="3060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C10">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -545,7 +545,7 @@
         <v>813</v>
       </c>
       <c r="C11">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
